--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42983,6 +42983,41 @@
         <v>2168400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>2038700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43018,6 +43018,41 @@
         <v>2038700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1336100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43053,6 +43053,41 @@
         <v>1336100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>6694800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43088,6 +43088,41 @@
         <v>6694800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1617400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43123,6 +43123,41 @@
         <v>1617400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1181400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43158,6 +43158,41 @@
         <v>1181400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3914200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43193,6 +43193,41 @@
         <v>3914200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1140800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43228,6 +43228,41 @@
         <v>1140800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3409300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43263,6 +43263,41 @@
         <v>3409300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1079500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43298,6 +43298,41 @@
         <v>1079500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1693900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43333,6 +43333,41 @@
         <v>1693900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1784100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43368,6 +43368,41 @@
         <v>1784100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>391400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43403,6 +43403,76 @@
         <v>391400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>732500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>2080000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43473,6 +43473,76 @@
         <v>2080000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2139200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>511000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,41 @@
         <v>511000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>724700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43578,6 +43578,41 @@
         <v>724700</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1265100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,41 @@
         <v>1265100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>2020400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43648,6 +43648,41 @@
         <v>2020400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2537600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,76 @@
         <v>2537600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1073600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>408300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43753,6 +43753,41 @@
         <v>408300</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1224000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43788,6 +43788,41 @@
         <v>1224000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>3789100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2619"/>
+  <dimension ref="A1:I2620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92053,6 +92053,41 @@
         <v>3789100</v>
       </c>
     </row>
+    <row r="2620">
+      <c r="A2620" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2620" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2620" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2620" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2620" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F2620" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2620" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2620" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2620" t="n">
+        <v>3595400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2620"/>
+  <dimension ref="A1:I2621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92088,6 +92088,41 @@
         <v>3595400</v>
       </c>
     </row>
+    <row r="2621">
+      <c r="A2621" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2621" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2621" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2621" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2621" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2621" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2621" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2621" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2621" t="n">
+        <v>1302800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2621"/>
+  <dimension ref="A1:I2622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92123,6 +92123,41 @@
         <v>1302800</v>
       </c>
     </row>
+    <row r="2622">
+      <c r="A2622" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2622" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2622" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2622" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2622" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2622" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2622" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2622" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2622" t="n">
+        <v>1407900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2622"/>
+  <dimension ref="A1:I2623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92158,6 +92158,41 @@
         <v>1407900</v>
       </c>
     </row>
+    <row r="2623">
+      <c r="A2623" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2623" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2623" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2623" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2623" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2623" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2623" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2623" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2623" t="n">
+        <v>1010700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2623"/>
+  <dimension ref="A1:I2624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92193,6 +92193,41 @@
         <v>1010700</v>
       </c>
     </row>
+    <row r="2624">
+      <c r="A2624" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2624" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2624" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2624" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2624" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2624" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2624" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2624" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2624" t="n">
+        <v>698200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2624"/>
+  <dimension ref="A1:I2625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92228,6 +92228,41 @@
         <v>698200</v>
       </c>
     </row>
+    <row r="2625">
+      <c r="A2625" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2625" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2625" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2625" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2625" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2625" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2625" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2625" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2625" t="n">
+        <v>744100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2625"/>
+  <dimension ref="A1:I2626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92263,6 +92263,41 @@
         <v>744100</v>
       </c>
     </row>
+    <row r="2626">
+      <c r="A2626" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2626" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2626" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2626" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2626" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F2626" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2626" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2626" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2626" t="n">
+        <v>596900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2626"/>
+  <dimension ref="A1:I2627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92298,6 +92298,41 @@
         <v>596900</v>
       </c>
     </row>
+    <row r="2627">
+      <c r="A2627" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2627" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2627" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2627" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2627" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2627" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2627" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2627" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2627" t="n">
+        <v>1350600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2627"/>
+  <dimension ref="A1:I2628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92333,6 +92333,41 @@
         <v>1350600</v>
       </c>
     </row>
+    <row r="2628">
+      <c r="A2628" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2628" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2628" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2628" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2628" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2628" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2628" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2628" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2628" t="n">
+        <v>679700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2628"/>
+  <dimension ref="A1:I2629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92368,6 +92368,41 @@
         <v>679700</v>
       </c>
     </row>
+    <row r="2629">
+      <c r="A2629" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2629" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2629" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2629" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2629" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2629" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2629" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2629" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2629" t="n">
+        <v>1611700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2629"/>
+  <dimension ref="A1:I2630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92403,6 +92403,41 @@
         <v>1611700</v>
       </c>
     </row>
+    <row r="2630">
+      <c r="A2630" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2630" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2630" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2630" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2630" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2630" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2630" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2630" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2630" t="n">
+        <v>1267200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2630"/>
+  <dimension ref="A1:I2631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92438,6 +92438,41 @@
         <v>1267200</v>
       </c>
     </row>
+    <row r="2631">
+      <c r="A2631" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2631" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2631" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2631" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2631" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2631" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G2631" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2631" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I2631" t="n">
+        <v>646400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2631"/>
+  <dimension ref="A1:I2632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92473,6 +92473,41 @@
         <v>646400</v>
       </c>
     </row>
+    <row r="2632">
+      <c r="A2632" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2632" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2632" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2632" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2632" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F2632" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2632" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2632" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2632" t="n">
+        <v>1134300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2632"/>
+  <dimension ref="A1:I2633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92508,6 +92508,41 @@
         <v>1134300</v>
       </c>
     </row>
+    <row r="2633">
+      <c r="A2633" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2633" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2633" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2633" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2633" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F2633" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2633" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2633" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2633" t="n">
+        <v>664500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2633"/>
+  <dimension ref="A1:I2634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92543,6 +92543,41 @@
         <v>664500</v>
       </c>
     </row>
+    <row r="2634">
+      <c r="A2634" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2634" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2634" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2634" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2634" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F2634" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2634" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2634" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2634" t="n">
+        <v>805300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2789"/>
+  <dimension ref="A1:I2790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98003,6 +98003,41 @@
         <v>805300</v>
       </c>
     </row>
+    <row r="2790">
+      <c r="A2790" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2790" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2790" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2790" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2790" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2790" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2790" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2790" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2790" t="n">
+        <v>406400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2790"/>
+  <dimension ref="A1:I2791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98038,6 +98038,41 @@
         <v>406400</v>
       </c>
     </row>
+    <row r="2791">
+      <c r="A2791" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2791" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2791" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2791" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2791" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F2791" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2791" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2791" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2791" t="n">
+        <v>1423300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2791"/>
+  <dimension ref="A1:I2792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98073,6 +98073,41 @@
         <v>1423300</v>
       </c>
     </row>
+    <row r="2792">
+      <c r="A2792" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2792" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2792" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2792" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2792" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F2792" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2792" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2792" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2792" t="n">
+        <v>656700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2792"/>
+  <dimension ref="A1:I2793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98108,6 +98108,41 @@
         <v>656700</v>
       </c>
     </row>
+    <row r="2793">
+      <c r="A2793" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2793" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2793" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2793" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2793" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F2793" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2793" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2793" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2793" t="n">
+        <v>1048500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2793"/>
+  <dimension ref="A1:I2794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98143,6 +98143,41 @@
         <v>1048500</v>
       </c>
     </row>
+    <row r="2794">
+      <c r="A2794" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2794" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2794" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2794" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2794" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2794" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2794" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2794" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2794" t="n">
+        <v>536000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2794"/>
+  <dimension ref="A1:I2795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98178,6 +98178,41 @@
         <v>536000</v>
       </c>
     </row>
+    <row r="2795">
+      <c r="A2795" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2795" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2795" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2795" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2795" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2795" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2795" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2795" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2795" t="n">
+        <v>1183800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2795"/>
+  <dimension ref="A1:I2796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98213,6 +98213,41 @@
         <v>1183800</v>
       </c>
     </row>
+    <row r="2796">
+      <c r="A2796" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2796" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2796" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2796" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2796" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2796" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2796" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2796" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2796" t="n">
+        <v>1487100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2796"/>
+  <dimension ref="A1:I2797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98248,6 +98248,41 @@
         <v>1487100</v>
       </c>
     </row>
+    <row r="2797">
+      <c r="A2797" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2797" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2797" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2797" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2797" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F2797" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2797" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H2797" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2797" t="n">
+        <v>920000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2797"/>
+  <dimension ref="A1:I2798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98283,6 +98283,41 @@
         <v>920000</v>
       </c>
     </row>
+    <row r="2798">
+      <c r="A2798" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2798" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2798" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2798" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2798" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2798" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G2798" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H2798" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2798" t="n">
+        <v>8665200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2798"/>
+  <dimension ref="A1:I2799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98318,6 +98318,41 @@
         <v>8665200</v>
       </c>
     </row>
+    <row r="2799">
+      <c r="A2799" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2799" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2799" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2799" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2799" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2799" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2799" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2799" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2799" t="n">
+        <v>5136100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2799"/>
+  <dimension ref="A1:I2801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98353,6 +98353,76 @@
         <v>5136100</v>
       </c>
     </row>
+    <row r="2800">
+      <c r="A2800" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2800" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2800" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2800" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2800" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2800" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2800" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H2800" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I2800" t="n">
+        <v>6608000</v>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2801" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2801" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2801" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2801" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F2801" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G2801" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2801" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2801" t="n">
+        <v>5294000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2801"/>
+  <dimension ref="A1:I2802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98423,6 +98423,41 @@
         <v>5294000</v>
       </c>
     </row>
+    <row r="2802">
+      <c r="A2802" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2802" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2802" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2802" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2802" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2802" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G2802" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2802" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I2802" t="n">
+        <v>47800100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2802"/>
+  <dimension ref="A1:I2805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98458,6 +98458,111 @@
         <v>47800100</v>
       </c>
     </row>
+    <row r="2803">
+      <c r="A2803" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2803" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2803" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2803" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2803" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F2803" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G2803" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H2803" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2803" t="n">
+        <v>60786600</v>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2804" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2804" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2804" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2804" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F2804" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G2804" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H2804" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I2804" t="n">
+        <v>74332700</v>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2805" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2805" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2805" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2805" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F2805" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2805" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H2805" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2805" t="n">
+        <v>44127300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2805"/>
+  <dimension ref="A1:I2806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98563,6 +98563,41 @@
         <v>44127300</v>
       </c>
     </row>
+    <row r="2806">
+      <c r="A2806" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2806" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2806" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2806" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F2806" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2806" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H2806" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2806" t="n">
+        <v>36728100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2806"/>
+  <dimension ref="A1:I2807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98598,6 +98598,41 @@
         <v>36728100</v>
       </c>
     </row>
+    <row r="2807">
+      <c r="A2807" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2807" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2807" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2807" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2807" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F2807" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G2807" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2807" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I2807" t="n">
+        <v>14894000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5143.xlsx
+++ b/data/5143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2807"/>
+  <dimension ref="A1:I2810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98633,6 +98633,111 @@
         <v>14894000</v>
       </c>
     </row>
+    <row r="2808">
+      <c r="A2808" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2808" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2808" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2808" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2808" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F2808" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G2808" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H2808" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2808" t="n">
+        <v>17684200</v>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2809" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2809" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2809" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2809" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2809" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G2809" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H2809" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I2809" t="n">
+        <v>14369100</v>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2810" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2810" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="D2810" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="E2810" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2810" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G2810" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2810" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I2810" t="n">
+        <v>18702900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
